--- a/JetwaysAdmin.UI/wwwroot/files/UserDetail.xlsx
+++ b/JetwaysAdmin.UI/wwwroot/files/UserDetail.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="6780"/>
+    <workbookView windowWidth="20490" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>UserID</t>
   </si>
@@ -65,36 +65,6 @@
     <t>WorkLocation</t>
   </si>
   <si>
-    <t>UserType</t>
-  </si>
-  <si>
-    <t>Logo</t>
-  </si>
-  <si>
-    <t>SystemIntegrationRefNo</t>
-  </si>
-  <si>
-    <t>ApprovalRequiredForBooking</t>
-  </si>
-  <si>
-    <t>ApprovalRequiredForDeviation</t>
-  </si>
-  <si>
-    <t>GDSProfileType</t>
-  </si>
-  <si>
-    <t>CreatedBy</t>
-  </si>
-  <si>
-    <t>CreatedDate</t>
-  </si>
-  <si>
-    <t>ModifyBy</t>
-  </si>
-  <si>
-    <t>ModifyDate</t>
-  </si>
-  <si>
     <t>AppStatus</t>
   </si>
   <si>
@@ -113,20 +83,64 @@
     <t>ReportingManager</t>
   </si>
   <si>
-    <t>Password</t>
+    <t>FEC0024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Company Name</t>
+  </si>
+  <si>
+    <t>EMRT6</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>Vinay</t>
+  </si>
+  <si>
+    <t>Singh</t>
+  </si>
+  <si>
+    <t>vinyy@jetwaystravels.com</t>
+  </si>
+  <si>
+    <t>+91</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1990-01-21
+</t>
+  </si>
+  <si>
+    <t>Tech</t>
+  </si>
+  <si>
+    <t>Software Developer</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>ManagerTest</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,17 +157,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF303336"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF303336"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -481,7 +508,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -490,9 +517,105 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -620,141 +743,184 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -808,6 +974,11 @@
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00AF74F3"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1101,113 +1272,412 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AC1"/>
+  <dimension ref="A1:BB11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.8571428571429" customWidth="1"/>
-    <col min="2" max="2" width="20.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="18.5714285714286" customWidth="1"/>
-    <col min="4" max="4" width="20.1428571428571" customWidth="1"/>
-    <col min="6" max="6" width="17.5714285714286" customWidth="1"/>
-    <col min="7" max="7" width="15.8571428571429" customWidth="1"/>
-    <col min="8" max="8" width="18.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="16.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="20.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="15.4285714285714" customWidth="1"/>
+    <col min="6" max="6" width="11.4285714285714" customWidth="1"/>
+    <col min="7" max="7" width="10.2857142857143" customWidth="1"/>
+    <col min="8" max="8" width="32.7142857142857" customWidth="1"/>
+    <col min="9" max="9" width="20.7142857142857" customWidth="1"/>
+    <col min="10" max="10" width="15.1428571428571" customWidth="1"/>
+    <col min="11" max="11" width="11.8571428571429" customWidth="1"/>
+    <col min="12" max="12" width="15.2857142857143" customWidth="1"/>
+    <col min="14" max="14" width="22.5714285714286" customWidth="1"/>
+    <col min="15" max="15" width="27.2857142857143" customWidth="1"/>
+    <col min="16" max="16" width="28.2857142857143" customWidth="1"/>
+    <col min="17" max="17" width="14.7142857142857" customWidth="1"/>
+    <col min="18" max="18" width="20.5714285714286" customWidth="1"/>
+    <col min="19" max="19" width="11.8571428571429" customWidth="1"/>
+    <col min="20" max="20" width="9.28571428571429" customWidth="1"/>
+    <col min="21" max="21" width="11.2857142857143" customWidth="1"/>
+    <col min="22" max="22" width="9.71428571428571" customWidth="1"/>
+    <col min="23" max="23" width="11.2857142857143" customWidth="1"/>
+    <col min="24" max="24" width="11.4285714285714" customWidth="1"/>
+    <col min="25" max="25" width="11.2857142857143" customWidth="1"/>
+    <col min="27" max="27" width="17.2857142857143" customWidth="1"/>
+    <col min="28" max="28" width="14.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" ht="15.75" spans="1:54">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="20"/>
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="20"/>
+      <c r="AM1" s="20"/>
+      <c r="AN1" s="20"/>
+      <c r="AO1" s="20"/>
+      <c r="AP1" s="20"/>
+      <c r="AQ1" s="20"/>
+      <c r="AR1" s="20"/>
+      <c r="AS1" s="20"/>
+      <c r="AT1" s="23"/>
+      <c r="AU1" s="24"/>
+      <c r="AV1" s="24"/>
+      <c r="AW1" s="24"/>
+      <c r="AX1" s="24"/>
+      <c r="AY1" s="24"/>
+      <c r="AZ1" s="24"/>
+      <c r="BA1" s="24"/>
+      <c r="BB1" s="24"/>
+    </row>
+    <row r="2" spans="1:28">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="H2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="I2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="J2" s="13">
+        <v>9494949494</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="L2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="M2" s="14">
+        <v>0</v>
+      </c>
+      <c r="N2" s="15" t="s">
         <v>28</v>
       </c>
+      <c r="O2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" s="17"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="17"/>
+      <c r="AB2" s="11"/>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="17"/>
+      <c r="AB3" s="11"/>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="17"/>
+      <c r="AB4" s="11"/>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="17"/>
+      <c r="AB5" s="11"/>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="17"/>
+      <c r="AB6" s="11"/>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="17"/>
+      <c r="AB7" s="11"/>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="17"/>
+      <c r="AB8" s="11"/>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="17"/>
+      <c r="AB9" s="11"/>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="17"/>
+      <c r="AB10" s="11"/>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="17"/>
+      <c r="AB11" s="11"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" display="vinyy@jetwaystravels.com" tooltip="mailto:vinyy@jetwaystravels.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
